--- a/data/datafile.xlsx
+++ b/data/datafile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A10C1C5-4C64-3C41-943E-9A37A7EFD1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9B1512-9F0A-614D-AEBA-3409B46F9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="3460" windowWidth="29320" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12500" yWindow="3880" windowWidth="29320" windowHeight="15080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listing" sheetId="1" r:id="rId1"/>
@@ -78,11 +78,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -459,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1147,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1203,548 +1205,548 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.13900000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="B2" s="2">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2">
-        <v>516</v>
+        <v>294</v>
       </c>
       <c r="G2" s="3">
-        <v>570</v>
+        <v>380</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" ref="H2:H17" si="0">G2/D2</f>
-        <v>3.3139534883720931</v>
+        <f>G2/D2</f>
+        <v>2.5850340136054424</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I17" si="1">H2/MIN(3, C2)</f>
-        <v>1.1046511627906976</v>
+        <f>H2/MIN(3, C2)</f>
+        <v>1.2925170068027212</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:K17" si="2">_xlfn.IFS(I2&lt;0.9, "POOR! (--)", I2&lt;1, "(-)", I2=1, "OK", I2&gt;1.2, "BIG (++)", I2&gt;1, "(+)")</f>
-        <v>(+)</v>
+        <f>_xlfn.IFS(I2&lt;0.9, "POOR! (--)", I2&lt;1, "(-)", I2=1, "OK", I2&gt;1.2, "BIG (++)", I2&gt;1, "(+)")</f>
+        <v>BIG (++)</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K17" si="3">(I2-1)*A2</f>
-        <v>1.4546511627906973E-2</v>
+        <f>(I2-1)*A2</f>
+        <v>2.3401360544217696E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.13400000000000001</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="B3" s="2">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="E3" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2">
-        <v>380</v>
+        <v>495</v>
       </c>
       <c r="G3" s="3">
-        <v>380</v>
+        <v>570</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>G3/D3</f>
+        <v>3.4545454545454546</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>H3/MIN(3, C3)</f>
+        <v>1.1515151515151516</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f>_xlfn.IFS(I3&lt;0.9, "POOR! (--)", I3&lt;1, "(-)", I3=1, "OK", I3&gt;1.2, "BIG (++)", I3&gt;1, "(+)")</f>
+        <v>(+)</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>(I3-1)*A3</f>
+        <v>9.2424242424242482E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="B4" s="2">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2">
-        <v>537</v>
+        <v>330</v>
       </c>
       <c r="G4" s="3">
-        <v>570</v>
+        <v>380</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1843575418994412</v>
+        <f>G4/D4</f>
+        <v>2.3030303030303032</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0614525139664803</v>
+        <f>H4/MIN(3, C4)</f>
+        <v>1.1515151515151516</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.IFS(I4&lt;0.9, "POOR! (--)", I4&lt;1, "(-)", I4=1, "OK", I4&gt;1.2, "BIG (++)", I4&gt;1, "(+)")</f>
         <v>(+)</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="3"/>
-        <v>5.8379888268156313E-3</v>
+        <f>(I4-1)*A4</f>
+        <v>2.4242424242424255E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="B5" s="2">
         <v>375</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
         <v>172</v>
       </c>
       <c r="E5" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2">
-        <v>344</v>
+        <v>516</v>
       </c>
       <c r="G5" s="3">
-        <v>380</v>
+        <v>570</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>2.2093023255813953</v>
+        <f>G5/D5</f>
+        <v>3.3139534883720931</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="1"/>
+        <f>H5/MIN(3, C5)</f>
         <v>1.1046511627906976</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.IFS(I5&lt;0.9, "POOR! (--)", I5&lt;1, "(-)", I5=1, "OK", I5&gt;1.2, "BIG (++)", I5&gt;1, "(+)")</f>
         <v>(+)</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
-        <v>8.9999999999999959E-3</v>
+        <f>(I5-1)*A5</f>
+        <v>1.4546511627906973E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="B6" s="2">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2">
-        <v>570</v>
+        <v>344</v>
       </c>
       <c r="G6" s="3">
-        <v>570</v>
+        <v>380</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>G6/D6</f>
+        <v>2.2093023255813953</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>H6/MIN(3, C6)</f>
+        <v>1.1046511627906976</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f>_xlfn.IFS(I6&lt;0.9, "POOR! (--)", I6&lt;1, "(-)", I6=1, "OK", I6&gt;1.2, "BIG (++)", I6&gt;1, "(+)")</f>
+        <v>(+)</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>(I6-1)*A6</f>
+        <v>8.9999999999999959E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="B7" s="2">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E7" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2">
-        <v>495</v>
+        <v>537</v>
       </c>
       <c r="G7" s="3">
         <v>570</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>3.4545454545454546</v>
+        <f>G7/D7</f>
+        <v>3.1843575418994412</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1515151515151516</v>
+        <f>H7/MIN(3, C7)</f>
+        <v>1.0614525139664803</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.IFS(I7&lt;0.9, "POOR! (--)", I7&lt;1, "(-)", I7=1, "OK", I7&gt;1.2, "BIG (++)", I7&gt;1, "(+)")</f>
         <v>(+)</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>9.2424242424242482E-3</v>
+        <f>(I7-1)*A7</f>
+        <v>5.8379888268156313E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>5.2000000000000005E-2</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="B8" s="2">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="D8" s="2">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2">
-        <v>588</v>
+        <v>495</v>
       </c>
       <c r="G8" s="3">
         <v>570</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9081632653061225</v>
+        <f>G8/D8</f>
+        <v>3.1666666666666665</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.96938775510204078</v>
+        <f>H8/MIN(3, C8)</f>
+        <v>1.1515151515151514</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(-)</v>
+        <f>_xlfn.IFS(I8&lt;0.9, "POOR! (--)", I8&lt;1, "(-)", I8=1, "OK", I8&gt;1.2, "BIG (++)", I8&gt;1, "(+)")</f>
+        <v>(+)</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.5918367346938794E-3</v>
+        <f>(I8-1)*A8</f>
+        <v>2.1212121212121193E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>4.0999999999999995E-2</v>
+        <v>3.7000000000000005E-2</v>
       </c>
       <c r="B9" s="2">
-        <v>1920</v>
+        <v>412</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>2.63</v>
       </c>
       <c r="D9" s="2">
-        <v>780</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2">
         <v>45</v>
       </c>
       <c r="F9" s="2">
-        <v>780</v>
-      </c>
-      <c r="G9" s="5">
-        <v>780</v>
+        <v>497</v>
+      </c>
+      <c r="G9" s="3">
+        <v>570</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>G9/D9</f>
+        <v>3.0158730158730158</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>H9/MIN(3, C9)</f>
+        <v>1.1467197778984852</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>OK</v>
+        <f>_xlfn.IFS(I9&lt;0.9, "POOR! (--)", I9&lt;1, "(-)", I9=1, "OK", I9&gt;1.2, "BIG (++)", I9&gt;1, "(+)")</f>
+        <v>(+)</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>(I9-1)*A9</f>
+        <v>5.4286317822439542E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>3.7000000000000005E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="B10" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C10" s="2">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2">
-        <v>497</v>
+        <v>380</v>
       </c>
       <c r="G10" s="3">
-        <v>570</v>
+        <v>380</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>3.0158730158730158</v>
+        <f>G10/D10</f>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1467197778984852</v>
+        <f>H10/MIN(3, C10)</f>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+        <f>_xlfn.IFS(I10&lt;0.9, "POOR! (--)", I10&lt;1, "(-)", I10=1, "OK", I10&gt;1.2, "BIG (++)", I10&gt;1, "(+)")</f>
+        <v>OK</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
-        <v>5.4286317822439542E-3</v>
+        <f>(I10-1)*A10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2.3E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="B11" s="2">
-        <v>1440</v>
+        <v>414</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>551</v>
+        <v>190</v>
       </c>
       <c r="E11" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2">
-        <v>1102</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1102</v>
+        <v>570</v>
+      </c>
+      <c r="G11" s="3">
+        <v>570</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>G11/D11</f>
+        <v>3</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="1"/>
+        <f>H11/MIN(3, C11)</f>
         <v>1</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.IFS(I11&lt;0.9, "POOR! (--)", I11&lt;1, "(-)", I11=1, "OK", I11&gt;1.2, "BIG (++)", I11&gt;1, "(+)")</f>
         <v>OK</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f>(I11-1)*A11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>1.8000000000000002E-2</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="B12" s="2">
-        <v>1366</v>
+        <v>428</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>522</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="G12" s="3">
         <v>570</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0919540229885059</v>
+        <f>G12/D12</f>
+        <v>2.9081632653061225</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0919540229885059</v>
+        <f>H12/MIN(3, C12)</f>
+        <v>0.96938775510204078</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+        <f>_xlfn.IFS(I12&lt;0.9, "POOR! (--)", I12&lt;1, "(-)", I12=1, "OK", I12&gt;1.2, "BIG (++)", I12&gt;1, "(+)")</f>
+        <v>(-)</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
-        <v>1.6551724137931056E-3</v>
+        <f>(I12-1)*A12</f>
+        <v>-1.5918367346938794E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="B13" s="2">
-        <v>360</v>
+        <v>768</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>165</v>
+        <v>352</v>
       </c>
       <c r="E13" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2">
-        <v>330</v>
-      </c>
-      <c r="G13" s="3">
-        <v>380</v>
+        <v>704</v>
+      </c>
+      <c r="G13" s="5">
+        <v>780</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3030303030303032</v>
+        <f>G13/D13</f>
+        <v>2.2159090909090908</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1515151515151516</v>
+        <f>H13/MIN(3, C13)</f>
+        <v>1.1079545454545454</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.IFS(I13&lt;0.9, "POOR! (--)", I13&lt;1, "(-)", I13=1, "OK", I13&gt;1.2, "BIG (++)", I13&gt;1, "(+)")</f>
         <v>(+)</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
-        <v>2.4242424242424255E-3</v>
+        <f>(I13-1)*A13</f>
+        <v>1.6193181818181812E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="B14" s="2">
-        <v>768</v>
+        <v>1366</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>352</v>
+        <v>522</v>
       </c>
       <c r="E14" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2">
-        <v>704</v>
-      </c>
-      <c r="G14" s="5">
-        <v>780</v>
+        <v>522</v>
+      </c>
+      <c r="G14" s="3">
+        <v>570</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>2.2159090909090908</v>
+        <f>G14/D14</f>
+        <v>1.0919540229885059</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1079545454545454</v>
+        <f>H14/MIN(3, C14)</f>
+        <v>1.0919540229885059</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.IFS(I14&lt;0.9, "POOR! (--)", I14&lt;1, "(-)", I14=1, "OK", I14&gt;1.2, "BIG (++)", I14&gt;1, "(+)")</f>
         <v>(+)</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
-        <v>1.6193181818181812E-3</v>
+        <f>(I14-1)*A14</f>
+        <v>1.6551724137931056E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>1.3999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="B15" s="2">
-        <v>393</v>
+        <v>1440</v>
       </c>
       <c r="C15" s="2">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>180</v>
+        <v>551</v>
       </c>
       <c r="E15" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2">
-        <v>495</v>
-      </c>
-      <c r="G15" s="3">
-        <v>570</v>
+        <v>1102</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1102</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1666666666666665</v>
+        <f>G15/D15</f>
+        <v>2</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1515151515151514</v>
+        <f>H15/MIN(3, C15)</f>
+        <v>1</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+        <f>_xlfn.IFS(I15&lt;0.9, "POOR! (--)", I15&lt;1, "(-)", I15=1, "OK", I15&gt;1.2, "BIG (++)", I15&gt;1, "(+)")</f>
+        <v>OK</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1212121212121193E-3</v>
+        <f>(I15-1)*A15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1761,7 +1763,7 @@
         <v>587</v>
       </c>
       <c r="E16" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2">
         <v>734</v>
@@ -1770,62 +1772,65 @@
         <v>780</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="0"/>
+        <f>G16/D16</f>
         <v>1.3287904599659284</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="1"/>
+        <f>H16/MIN(3, C16)</f>
         <v>1.0630323679727427</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.IFS(I16&lt;0.9, "POOR! (--)", I16&lt;1, "(-)", I16=1, "OK", I16&gt;1.2, "BIG (++)", I16&gt;1, "(+)")</f>
         <v>(+)</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f>(I16-1)*A16</f>
         <v>6.9335604770016978E-4</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>4.0999999999999995E-2</v>
       </c>
       <c r="B17" s="2">
-        <v>320</v>
+        <v>1920</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>147</v>
+        <v>780</v>
       </c>
       <c r="E17" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2">
-        <v>294</v>
-      </c>
-      <c r="G17" s="3">
-        <v>380</v>
+        <v>780</v>
+      </c>
+      <c r="G17" s="5">
+        <v>780</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5850340136054424</v>
+        <f>G17/D17</f>
+        <v>1</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="1"/>
-        <v>1.2925170068027212</v>
+        <f>H17/MIN(3, C17)</f>
+        <v>1</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+        <f>_xlfn.IFS(I17&lt;0.9, "POOR! (--)", I17&lt;1, "(-)", I17=1, "OK", I17&gt;1.2, "BIG (++)", I17&gt;1, "(+)")</f>
+        <v>OK</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
-        <v>2.3401360544217696E-3</v>
+        <f>(I17-1)*A17</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
+    <sortCondition ref="B2:B17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>

--- a/data/datafile.xlsx
+++ b/data/datafile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9B1512-9F0A-614D-AEBA-3409B46F9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3505CF-5FE2-E54F-9B1B-776B813E1297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="3880" windowWidth="29320" windowHeight="15080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17500" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listing" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,12 +76,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -113,13 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,23 +454,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -529,7 +521,7 @@
         <v>172</v>
       </c>
       <c r="E2" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2">
         <v>344</v>
@@ -568,7 +560,7 @@
         <v>190</v>
       </c>
       <c r="E3" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2">
         <v>380</v>
@@ -607,7 +599,7 @@
         <v>179</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2">
         <v>358</v>
@@ -646,7 +638,7 @@
         <v>172</v>
       </c>
       <c r="E5" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2">
         <v>344</v>
@@ -685,7 +677,7 @@
         <v>190</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2">
         <v>380</v>
@@ -724,7 +716,7 @@
         <v>165</v>
       </c>
       <c r="E7" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2">
         <v>330</v>
@@ -763,7 +755,7 @@
         <v>196</v>
       </c>
       <c r="E8" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2">
         <v>392</v>
@@ -802,12 +794,12 @@
         <v>450</v>
       </c>
       <c r="E9" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2">
         <v>450</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>450</v>
       </c>
       <c r="H9" s="4">
@@ -841,7 +833,7 @@
         <v>189</v>
       </c>
       <c r="E10" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2">
         <v>378</v>
@@ -880,12 +872,12 @@
         <v>339</v>
       </c>
       <c r="E11" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2">
         <v>678</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>678</v>
       </c>
       <c r="H11" s="4">
@@ -919,7 +911,7 @@
         <v>321</v>
       </c>
       <c r="E12" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2">
         <v>321</v>
@@ -958,7 +950,7 @@
         <v>165</v>
       </c>
       <c r="E13" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2">
         <v>330</v>
@@ -997,12 +989,12 @@
         <v>352</v>
       </c>
       <c r="E14" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2">
         <v>704</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>678</v>
       </c>
       <c r="H14" s="4">
@@ -1036,7 +1028,7 @@
         <v>180</v>
       </c>
       <c r="E15" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2">
         <v>360</v>
@@ -1075,12 +1067,12 @@
         <v>361</v>
       </c>
       <c r="E16" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
         <v>451</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>450</v>
       </c>
       <c r="H16" s="4">
@@ -1114,7 +1106,7 @@
         <v>147</v>
       </c>
       <c r="E17" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2">
         <v>294</v>
@@ -1149,23 +1141,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1205,130 +1196,130 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="B2" s="2">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="E2" s="2">
         <v>45</v>
       </c>
       <c r="F2" s="2">
-        <v>294</v>
+        <v>516</v>
       </c>
       <c r="G2" s="3">
-        <v>380</v>
+        <v>570</v>
       </c>
       <c r="H2" s="4">
-        <f>G2/D2</f>
-        <v>2.5850340136054424</v>
+        <f t="shared" ref="H2:H17" si="0">G2/D2</f>
+        <v>3.3139534883720931</v>
       </c>
       <c r="I2" s="4">
-        <f>H2/MIN(3, C2)</f>
-        <v>1.2925170068027212</v>
+        <f t="shared" ref="I2:I17" si="1">H2/MIN(3, C2)</f>
+        <v>1.1046511627906976</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f>_xlfn.IFS(I2&lt;0.9, "POOR! (--)", I2&lt;1, "(-)", I2=1, "OK", I2&gt;1.2, "BIG (++)", I2&gt;1, "(+)")</f>
-        <v>BIG (++)</v>
+        <f t="shared" ref="J2:J17" si="2">_xlfn.IFS(I2&lt;0.9, "POOR! (--)", I2&lt;1, "(-)", I2=1, "OK", I2&gt;1.2, "BIG (++)", I2&gt;1, "(+)")</f>
+        <v>(+)</v>
       </c>
       <c r="K2" s="1">
-        <f>(I2-1)*A2</f>
-        <v>2.3401360544217696E-3</v>
+        <f t="shared" ref="K2:K17" si="3">(I2-1)*A2</f>
+        <v>1.4546511627906973E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="B3" s="2">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="E3" s="2">
         <v>45</v>
       </c>
       <c r="F3" s="2">
-        <v>495</v>
+        <v>380</v>
       </c>
       <c r="G3" s="3">
-        <v>570</v>
+        <v>380</v>
       </c>
       <c r="H3" s="4">
-        <f>G3/D3</f>
-        <v>3.4545454545454546</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I3" s="4">
-        <f>H3/MIN(3, C3)</f>
-        <v>1.1515151515151516</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f>_xlfn.IFS(I3&lt;0.9, "POOR! (--)", I3&lt;1, "(-)", I3=1, "OK", I3&gt;1.2, "BIG (++)", I3&gt;1, "(+)")</f>
-        <v>(+)</v>
+        <f t="shared" si="2"/>
+        <v>OK</v>
       </c>
       <c r="K3" s="1">
-        <f>(I3-1)*A3</f>
-        <v>9.2424242424242482E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1.6E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="B4" s="2">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="E4" s="2">
         <v>45</v>
       </c>
       <c r="F4" s="2">
-        <v>330</v>
+        <v>537</v>
       </c>
       <c r="G4" s="3">
-        <v>380</v>
+        <v>570</v>
       </c>
       <c r="H4" s="4">
-        <f>G4/D4</f>
-        <v>2.3030303030303032</v>
+        <f t="shared" si="0"/>
+        <v>3.1843575418994412</v>
       </c>
       <c r="I4" s="4">
-        <f>H4/MIN(3, C4)</f>
-        <v>1.1515151515151516</v>
+        <f t="shared" si="1"/>
+        <v>1.0614525139664803</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f>_xlfn.IFS(I4&lt;0.9, "POOR! (--)", I4&lt;1, "(-)", I4=1, "OK", I4&gt;1.2, "BIG (++)", I4&gt;1, "(+)")</f>
+        <f t="shared" si="2"/>
         <v>(+)</v>
       </c>
       <c r="K4" s="1">
-        <f>(I4-1)*A4</f>
-        <v>2.4242424242424255E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.8379888268156313E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0.13900000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="B5" s="2">
         <v>375</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>172</v>
@@ -1337,416 +1328,416 @@
         <v>45</v>
       </c>
       <c r="F5" s="2">
-        <v>516</v>
+        <v>344</v>
       </c>
       <c r="G5" s="3">
-        <v>570</v>
+        <v>380</v>
       </c>
       <c r="H5" s="4">
-        <f>G5/D5</f>
-        <v>3.3139534883720931</v>
+        <f t="shared" si="0"/>
+        <v>2.2093023255813953</v>
       </c>
       <c r="I5" s="4">
-        <f>H5/MIN(3, C5)</f>
+        <f t="shared" si="1"/>
         <v>1.1046511627906976</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f>_xlfn.IFS(I5&lt;0.9, "POOR! (--)", I5&lt;1, "(-)", I5=1, "OK", I5&gt;1.2, "BIG (++)", I5&gt;1, "(+)")</f>
+        <f t="shared" si="2"/>
         <v>(+)</v>
       </c>
       <c r="K5" s="1">
-        <f>(I5-1)*A5</f>
-        <v>1.4546511627906973E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.9999999999999959E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="B6" s="2">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E6" s="2">
         <v>45</v>
       </c>
       <c r="F6" s="2">
-        <v>344</v>
+        <v>570</v>
       </c>
       <c r="G6" s="3">
-        <v>380</v>
+        <v>570</v>
       </c>
       <c r="H6" s="4">
-        <f>G6/D6</f>
-        <v>2.2093023255813953</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I6" s="4">
-        <f>H6/MIN(3, C6)</f>
-        <v>1.1046511627906976</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f>_xlfn.IFS(I6&lt;0.9, "POOR! (--)", I6&lt;1, "(-)", I6=1, "OK", I6&gt;1.2, "BIG (++)", I6&gt;1, "(+)")</f>
-        <v>(+)</v>
+        <f t="shared" si="2"/>
+        <v>OK</v>
       </c>
       <c r="K6" s="1">
-        <f>(I6-1)*A6</f>
-        <v>8.9999999999999959E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="B7" s="2">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E7" s="2">
         <v>45</v>
       </c>
       <c r="F7" s="2">
-        <v>537</v>
+        <v>495</v>
       </c>
       <c r="G7" s="3">
         <v>570</v>
       </c>
       <c r="H7" s="4">
-        <f>G7/D7</f>
-        <v>3.1843575418994412</v>
+        <f t="shared" si="0"/>
+        <v>3.4545454545454546</v>
       </c>
       <c r="I7" s="4">
-        <f>H7/MIN(3, C7)</f>
-        <v>1.0614525139664803</v>
+        <f t="shared" si="1"/>
+        <v>1.1515151515151516</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f>_xlfn.IFS(I7&lt;0.9, "POOR! (--)", I7&lt;1, "(-)", I7=1, "OK", I7&gt;1.2, "BIG (++)", I7&gt;1, "(+)")</f>
+        <f t="shared" si="2"/>
         <v>(+)</v>
       </c>
       <c r="K7" s="1">
-        <f>(I7-1)*A7</f>
-        <v>5.8379888268156313E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.2424242424242482E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>1.3999999999999999E-2</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="B8" s="2">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="C8" s="2">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E8" s="2">
         <v>45</v>
       </c>
       <c r="F8" s="2">
-        <v>495</v>
+        <v>588</v>
       </c>
       <c r="G8" s="3">
         <v>570</v>
       </c>
       <c r="H8" s="4">
-        <f>G8/D8</f>
-        <v>3.1666666666666665</v>
+        <f t="shared" si="0"/>
+        <v>2.9081632653061225</v>
       </c>
       <c r="I8" s="4">
-        <f>H8/MIN(3, C8)</f>
-        <v>1.1515151515151514</v>
+        <f t="shared" si="1"/>
+        <v>0.96938775510204078</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f>_xlfn.IFS(I8&lt;0.9, "POOR! (--)", I8&lt;1, "(-)", I8=1, "OK", I8&gt;1.2, "BIG (++)", I8&gt;1, "(+)")</f>
-        <v>(+)</v>
+        <f t="shared" si="2"/>
+        <v>(-)</v>
       </c>
       <c r="K8" s="1">
-        <f>(I8-1)*A8</f>
-        <v>2.1212121212121193E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.5918367346938794E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>3.7000000000000005E-2</v>
+        <v>4.0999999999999995E-2</v>
       </c>
       <c r="B9" s="2">
-        <v>412</v>
+        <v>1920</v>
       </c>
       <c r="C9" s="2">
-        <v>2.63</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>189</v>
+        <v>780</v>
       </c>
       <c r="E9" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2">
-        <v>497</v>
+        <v>780</v>
       </c>
       <c r="G9" s="3">
-        <v>570</v>
+        <v>780</v>
       </c>
       <c r="H9" s="4">
-        <f>G9/D9</f>
-        <v>3.0158730158730158</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
-        <f>H9/MIN(3, C9)</f>
-        <v>1.1467197778984852</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f>_xlfn.IFS(I9&lt;0.9, "POOR! (--)", I9&lt;1, "(-)", I9=1, "OK", I9&gt;1.2, "BIG (++)", I9&gt;1, "(+)")</f>
-        <v>(+)</v>
+        <f t="shared" si="2"/>
+        <v>OK</v>
       </c>
       <c r="K9" s="1">
-        <f>(I9-1)*A9</f>
-        <v>5.4286317822439542E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0.13400000000000001</v>
+        <v>3.7000000000000005E-2</v>
       </c>
       <c r="B10" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="D10" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="2">
         <v>45</v>
       </c>
       <c r="F10" s="2">
-        <v>380</v>
+        <v>497</v>
       </c>
       <c r="G10" s="3">
-        <v>380</v>
+        <v>570</v>
       </c>
       <c r="H10" s="4">
-        <f>G10/D10</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3.0158730158730158</v>
       </c>
       <c r="I10" s="4">
-        <f>H10/MIN(3, C10)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.1467197778984852</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f>_xlfn.IFS(I10&lt;0.9, "POOR! (--)", I10&lt;1, "(-)", I10=1, "OK", I10&gt;1.2, "BIG (++)", I10&gt;1, "(+)")</f>
-        <v>OK</v>
+        <f t="shared" si="2"/>
+        <v>(+)</v>
       </c>
       <c r="K10" s="1">
-        <f>(I10-1)*A10</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.4286317822439542E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="B11" s="2">
-        <v>414</v>
+        <v>1440</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
-        <v>190</v>
+        <v>551</v>
       </c>
       <c r="E11" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2">
-        <v>570</v>
+        <v>1102</v>
       </c>
       <c r="G11" s="3">
-        <v>570</v>
+        <v>1102</v>
       </c>
       <c r="H11" s="4">
-        <f>G11/D11</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
-        <f>H11/MIN(3, C11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f>_xlfn.IFS(I11&lt;0.9, "POOR! (--)", I11&lt;1, "(-)", I11=1, "OK", I11&gt;1.2, "BIG (++)", I11&gt;1, "(+)")</f>
+        <f t="shared" si="2"/>
         <v>OK</v>
       </c>
       <c r="K11" s="1">
-        <f>(I11-1)*A11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>5.2000000000000005E-2</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="B12" s="2">
-        <v>428</v>
+        <v>1366</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>196</v>
+        <v>522</v>
       </c>
       <c r="E12" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2">
-        <v>588</v>
+        <v>522</v>
       </c>
       <c r="G12" s="3">
         <v>570</v>
       </c>
       <c r="H12" s="4">
-        <f>G12/D12</f>
-        <v>2.9081632653061225</v>
+        <f t="shared" si="0"/>
+        <v>1.0919540229885059</v>
       </c>
       <c r="I12" s="4">
-        <f>H12/MIN(3, C12)</f>
-        <v>0.96938775510204078</v>
+        <f t="shared" si="1"/>
+        <v>1.0919540229885059</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f>_xlfn.IFS(I12&lt;0.9, "POOR! (--)", I12&lt;1, "(-)", I12=1, "OK", I12&gt;1.2, "BIG (++)", I12&gt;1, "(+)")</f>
-        <v>(-)</v>
+        <f t="shared" si="2"/>
+        <v>(+)</v>
       </c>
       <c r="K12" s="1">
-        <f>(I12-1)*A12</f>
-        <v>-1.5918367346938794E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.6551724137931056E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="B13" s="2">
-        <v>768</v>
+        <v>360</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>352</v>
+        <v>165</v>
       </c>
       <c r="E13" s="2">
         <v>45</v>
       </c>
       <c r="F13" s="2">
-        <v>704</v>
-      </c>
-      <c r="G13" s="5">
-        <v>780</v>
+        <v>330</v>
+      </c>
+      <c r="G13" s="3">
+        <v>380</v>
       </c>
       <c r="H13" s="4">
-        <f>G13/D13</f>
-        <v>2.2159090909090908</v>
+        <f t="shared" si="0"/>
+        <v>2.3030303030303032</v>
       </c>
       <c r="I13" s="4">
-        <f>H13/MIN(3, C13)</f>
-        <v>1.1079545454545454</v>
+        <f t="shared" si="1"/>
+        <v>1.1515151515151516</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f>_xlfn.IFS(I13&lt;0.9, "POOR! (--)", I13&lt;1, "(-)", I13=1, "OK", I13&gt;1.2, "BIG (++)", I13&gt;1, "(+)")</f>
+        <f t="shared" si="2"/>
         <v>(+)</v>
       </c>
       <c r="K13" s="1">
-        <f>(I13-1)*A13</f>
-        <v>1.6193181818181812E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.4242424242424255E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1.8000000000000002E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="B14" s="2">
-        <v>1366</v>
+        <v>768</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>522</v>
+        <v>352</v>
       </c>
       <c r="E14" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" s="2">
-        <v>522</v>
+        <v>704</v>
       </c>
       <c r="G14" s="3">
-        <v>570</v>
+        <v>780</v>
       </c>
       <c r="H14" s="4">
-        <f>G14/D14</f>
-        <v>1.0919540229885059</v>
+        <f t="shared" si="0"/>
+        <v>2.2159090909090908</v>
       </c>
       <c r="I14" s="4">
-        <f>H14/MIN(3, C14)</f>
-        <v>1.0919540229885059</v>
+        <f t="shared" si="1"/>
+        <v>1.1079545454545454</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f>_xlfn.IFS(I14&lt;0.9, "POOR! (--)", I14&lt;1, "(-)", I14=1, "OK", I14&gt;1.2, "BIG (++)", I14&gt;1, "(+)")</f>
+        <f t="shared" si="2"/>
         <v>(+)</v>
       </c>
       <c r="K14" s="1">
-        <f>(I14-1)*A14</f>
-        <v>1.6551724137931056E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.6193181818181812E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2.3E-2</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="B15" s="2">
-        <v>1440</v>
+        <v>393</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="D15" s="2">
-        <v>551</v>
+        <v>180</v>
       </c>
       <c r="E15" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2">
-        <v>1102</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1102</v>
+        <v>495</v>
+      </c>
+      <c r="G15" s="3">
+        <v>570</v>
       </c>
       <c r="H15" s="4">
-        <f>G15/D15</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
       </c>
       <c r="I15" s="4">
-        <f>H15/MIN(3, C15)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.1515151515151514</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f>_xlfn.IFS(I15&lt;0.9, "POOR! (--)", I15&lt;1, "(-)", I15=1, "OK", I15&gt;1.2, "BIG (++)", I15&gt;1, "(+)")</f>
-        <v>OK</v>
+        <f t="shared" si="2"/>
+        <v>(+)</v>
       </c>
       <c r="K15" s="1">
-        <f>(I15-1)*A15</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.1212121212121193E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1768,69 +1759,66 @@
       <c r="F16" s="2">
         <v>734</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>780</v>
       </c>
       <c r="H16" s="4">
-        <f>G16/D16</f>
+        <f t="shared" si="0"/>
         <v>1.3287904599659284</v>
       </c>
       <c r="I16" s="4">
-        <f>H16/MIN(3, C16)</f>
+        <f t="shared" si="1"/>
         <v>1.0630323679727427</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f>_xlfn.IFS(I16&lt;0.9, "POOR! (--)", I16&lt;1, "(-)", I16=1, "OK", I16&gt;1.2, "BIG (++)", I16&gt;1, "(+)")</f>
+        <f t="shared" si="2"/>
         <v>(+)</v>
       </c>
       <c r="K16" s="1">
-        <f>(I16-1)*A16</f>
+        <f t="shared" si="3"/>
         <v>6.9335604770016978E-4</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>4.0999999999999995E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="B17" s="2">
-        <v>1920</v>
+        <v>320</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>780</v>
+        <v>147</v>
       </c>
       <c r="E17" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2">
-        <v>780</v>
-      </c>
-      <c r="G17" s="5">
-        <v>780</v>
+        <v>294</v>
+      </c>
+      <c r="G17" s="3">
+        <v>380</v>
       </c>
       <c r="H17" s="4">
-        <f>G17/D17</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.5850340136054424</v>
       </c>
       <c r="I17" s="4">
-        <f>H17/MIN(3, C17)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>1.2925170068027212</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f>_xlfn.IFS(I17&lt;0.9, "POOR! (--)", I17&lt;1, "(-)", I17=1, "OK", I17&gt;1.2, "BIG (++)", I17&gt;1, "(+)")</f>
-        <v>OK</v>
+        <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="K17" s="1">
-        <f>(I17-1)*A17</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.3401360544217696E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
-    <sortCondition ref="B2:B17"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>

--- a/data/datafile.xlsx
+++ b/data/datafile.xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA55535-7F69-5240-95DB-DF0B0667304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="home" state="visible" r:id="rId4"/>
+    <sheet name="home" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,17 +80,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,14 +113,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double"/>
+      <left style="double">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -126,7 +149,17 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF99D07A"/>
+          <bgColor rgb="FFD4EDD2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -141,12 +174,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF99D07A"/>
         </patternFill>
       </fill>
     </dxf>
@@ -158,9 +188,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF99D07A"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -175,19 +208,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFD4EDD2"/>
+          <bgColor rgb="FF99D07A"/>
         </patternFill>
       </fill>
     </dxf>
@@ -525,9 +548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -545,7 +573,7 @@
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,9 +623,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.139</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="B2">
         <v>375</v>
@@ -616,15 +644,19 @@
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G17" si="0">F2/D2</f>
+        <v>4.4888888888888889</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" ref="H2:H17" si="1">G2/MIN(2,C2)</f>
-      </c>
-      <c r="I2">
+        <v>2.2444444444444445</v>
+      </c>
+      <c r="I2" t="str">
         <f t="shared" ref="I2:I17" si="2">_xlfn.IFS(    H2&lt;0.9, "POOR (--)",     H2&lt;1, "(-)",     H2=1, "GOOD!",     H2&gt;1.2, "BIG (++)",     H2&gt;1, "(+)"  )</f>
+        <v>BIG (++)</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J17" si="3">(H2-1)*A2</f>
+        <v>0.17297777777777779</v>
       </c>
       <c r="K2" s="4">
         <v>630</v>
@@ -634,20 +666,24 @@
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:M17" si="4">L2/D2</f>
+        <v>2.2476190476190476</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ref="N2:N17" si="5">M2/MIN(2,C2)</f>
-      </c>
-      <c r="O2">
+        <v>1.1238095238095238</v>
+      </c>
+      <c r="O2" t="str">
         <f t="shared" ref="O2:O17" si="6">_xlfn.IFS(    N2&lt;0.9, "POOR (--)",     N2&lt;1, "(-)",     N2=1, "GOOD!",     N2&gt;1.2, "BIG (++)",     N2&gt;1, "(+)"  )</f>
+        <v>(+)</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P17" si="7">(N2-1)*A2</f>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.720952380952381E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="B3">
         <v>414</v>
@@ -666,15 +702,19 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
+        <v>3.9943502824858759</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I3">
+        <v>1.9971751412429379</v>
+      </c>
+      <c r="I3" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="3"/>
+        <v>0.13362146892655369</v>
       </c>
       <c r="K3" s="4">
         <v>708</v>
@@ -684,20 +724,24 @@
       </c>
       <c r="M3" s="3">
         <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="str">
         <f t="shared" si="6"/>
+        <v>GOOD!</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="B4">
         <v>390</v>
@@ -716,15 +760,19 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
+        <v>4.2848484848484851</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I4">
+        <v>2.1424242424242426</v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
+        <v>0.10853030303030305</v>
       </c>
       <c r="K4" s="4">
         <v>660</v>
@@ -734,20 +782,24 @@
       </c>
       <c r="M4" s="3">
         <f t="shared" si="4"/>
+        <v>2.1454545454545455</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O4">
+        <v>1.0727272727272728</v>
+      </c>
+      <c r="O4" t="str">
         <f t="shared" si="6"/>
+        <v>(+)</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6.9090909090909116E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0.086</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="B5">
         <v>375</v>
@@ -766,15 +818,19 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
+        <v>4.4888888888888889</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I5">
+        <v>2.2444444444444445</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
+        <v>0.10702222222222221</v>
       </c>
       <c r="K5" s="4">
         <v>630</v>
@@ -784,20 +840,24 @@
       </c>
       <c r="M5" s="3">
         <f t="shared" si="4"/>
+        <v>2.2476190476190476</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O5">
+        <v>1.1238095238095238</v>
+      </c>
+      <c r="O5" t="str">
         <f t="shared" si="6"/>
+        <v>(+)</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.0647619047619046E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="B6">
         <v>414</v>
@@ -816,15 +876,19 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
+        <v>3.9943502824858759</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I6">
+        <v>1.9971751412429379</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
+        <v>8.2765536723163849E-2</v>
       </c>
       <c r="K6" s="4">
         <v>708</v>
@@ -834,20 +898,24 @@
       </c>
       <c r="M6" s="3">
         <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="str">
         <f t="shared" si="6"/>
+        <v>GOOD!</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.061</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="B7">
         <v>360</v>
@@ -866,15 +934,19 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
+        <v>4.7133333333333329</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I7">
+        <v>2.3566666666666665</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
+        <v>8.2756666666666659E-2</v>
       </c>
       <c r="K7" s="4">
         <v>600</v>
@@ -884,20 +956,24 @@
       </c>
       <c r="M7" s="3">
         <f t="shared" si="4"/>
+        <v>2.36</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O7">
+        <v>1.18</v>
+      </c>
+      <c r="O7" t="str">
         <f t="shared" si="6"/>
+        <v>(+)</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.0979999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0.052000000000000005</v>
+        <v>5.2000000000000005E-2</v>
       </c>
       <c r="B8">
         <v>428</v>
@@ -916,15 +992,19 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
+        <v>3.8423913043478262</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I8">
+        <v>1.9211956521739131</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
+        <v>4.7902173913043487E-2</v>
       </c>
       <c r="K8" s="4">
         <v>736</v>
@@ -934,20 +1014,24 @@
       </c>
       <c r="M8" s="3">
         <f t="shared" si="4"/>
+        <v>1.923913043478261</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O8">
+        <v>0.96195652173913049</v>
+      </c>
+      <c r="O8" t="str">
         <f t="shared" si="6"/>
+        <v>(-)</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-1.9782608695652149E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>0.040999999999999995</v>
+        <v>4.0999999999999995E-2</v>
       </c>
       <c r="B9">
         <v>1920</v>
@@ -966,38 +1050,46 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
+        <v>2.5249999999999999</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I9">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
+        <v>6.2524999999999983E-2</v>
       </c>
       <c r="K9" s="4">
         <v>560</v>
       </c>
       <c r="L9" s="5">
-        <v>708</v>
+        <v>560</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="6"/>
+        <v>GOOD!</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>0.037000000000000005</v>
+        <v>3.7000000000000005E-2</v>
       </c>
       <c r="B10">
         <v>412</v>
@@ -1016,15 +1108,19 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
+        <v>4.0170454545454541</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I10">
+        <v>2.0085227272727271</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
+        <v>3.7315340909090909E-2</v>
       </c>
       <c r="K10" s="4">
         <v>704</v>
@@ -1034,20 +1130,24 @@
       </c>
       <c r="M10" s="3">
         <f t="shared" si="4"/>
+        <v>2.0113636363636362</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O10">
+        <v>1.0056818181818181</v>
+      </c>
+      <c r="O10" t="str">
         <f t="shared" si="6"/>
+        <v>(+)</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.1022727272727051E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="B11">
         <v>1440</v>
@@ -1066,38 +1166,46 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
+        <v>2.6282527881040894</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I11">
+        <v>1.3141263940520447</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
+        <v>7.2249070631970275E-3</v>
       </c>
       <c r="K11" s="4">
         <v>1076</v>
       </c>
       <c r="L11" s="5">
-        <v>708</v>
+        <v>1076</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="str">
         <f t="shared" si="6"/>
+        <v>GOOD!</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>0.018000000000000002</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="B12">
         <v>1366</v>
@@ -1116,38 +1224,46 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
+        <v>2.8055555555555554</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I12">
+        <v>2.8055555555555554</v>
+      </c>
+      <c r="I12" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="K12" s="4">
         <v>504</v>
       </c>
       <c r="L12" s="5">
-        <v>708</v>
+        <v>560</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="4"/>
+        <v>1.1111111111111112</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O12">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="O12" t="str">
         <f t="shared" si="6"/>
+        <v>(+)</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="B13">
         <v>360</v>
@@ -1166,15 +1282,19 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
+        <v>4.7133333333333329</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I13">
+        <v>2.3566666666666665</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
+        <v>2.1706666666666662E-2</v>
       </c>
       <c r="K13" s="4">
         <v>600</v>
@@ -1184,20 +1304,24 @@
       </c>
       <c r="M13" s="3">
         <f t="shared" si="4"/>
+        <v>2.36</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O13">
+        <v>1.18</v>
+      </c>
+      <c r="O13" t="str">
         <f t="shared" si="6"/>
+        <v>(+)</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.8799999999999989E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="B14">
         <v>768</v>
@@ -1216,38 +1340,46 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
+        <v>6.1746724890829698</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I14">
+        <v>3.0873362445414849</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
+        <v>3.1310043668122275E-2</v>
       </c>
       <c r="K14" s="4">
         <v>458</v>
       </c>
       <c r="L14" s="5">
-        <v>708</v>
+        <v>560</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="4"/>
+        <v>2.445414847161572</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O14">
+        <v>1.222707423580786</v>
+      </c>
+      <c r="O14" t="str">
         <f t="shared" si="6"/>
+        <v>BIG (++)</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.3406113537117897E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>0.013999999999999999</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="B15">
         <v>393</v>
@@ -1266,15 +1398,19 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
+        <v>4.2462462462462458</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I15">
+        <v>2.1231231231231229</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
+        <v>1.5723723723723718E-2</v>
       </c>
       <c r="K15" s="4">
         <v>666</v>
@@ -1284,20 +1420,24 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="4"/>
+        <v>2.1261261261261262</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O15">
+        <v>1.0630630630630631</v>
+      </c>
+      <c r="O15" t="str">
         <f t="shared" si="6"/>
+        <v>(+)</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>8.828828828828831E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>0.011000000000000001</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="B16">
         <v>1536</v>
@@ -1316,15 +1456,19 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
+        <v>2.5249999999999999</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I16">
+        <v>2.02</v>
+      </c>
+      <c r="I16" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="3"/>
+        <v>1.1220000000000001E-2</v>
       </c>
       <c r="K16" s="4">
         <v>700</v>
@@ -1334,20 +1478,24 @@
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
+        <v>1.2642857142857142</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O16">
+        <v>1.0114285714285713</v>
+      </c>
+      <c r="O16" t="str">
         <f t="shared" si="6"/>
+        <v>(+)</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="7"/>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.257142857142848E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="B17">
         <v>320</v>
@@ -1366,65 +1514,73 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
+        <v>5.4384615384615387</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-      </c>
-      <c r="I17">
+        <v>2.7192307692307693</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="2"/>
+        <v>BIG (++)</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="3"/>
+        <v>1.3753846153846155E-2</v>
       </c>
       <c r="K17" s="4">
         <v>520</v>
       </c>
       <c r="L17" s="5">
-        <v>708</v>
+        <v>560</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="4"/>
+        <v>2.1538461538461537</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="5"/>
-      </c>
-      <c r="O17">
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="O17" t="str">
         <f t="shared" si="6"/>
+        <v>(+)</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="7"/>
+        <v>6.1538461538461497E-4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>O2="GOOD!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>O2="POOR (--)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>O2="BIG (++)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>OR(O2="(+)",O2="(-)")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>I2="GOOD!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>I2="POOR (--)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>I2="BIG (++)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>OR(I2="(+)",I2="(-)")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/data/datafile.xlsx
+++ b/data/datafile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DC31B3-C9F4-3745-85A1-EA802EAC39C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FA3F03-FD8F-D546-98A4-3E235DAAA308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="webdev-home" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2071,23 +2071,23 @@
         <v>1242</v>
       </c>
       <c r="L6" s="5">
-        <v>1125</v>
+        <v>1366</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="4"/>
-        <v>2.7173913043478262</v>
+        <v>3.2995169082125604</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="5"/>
-        <v>0.90579710144927539</v>
+        <v>1.0998389694041868</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="6"/>
-        <v>(-)</v>
+        <v>(+)</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="7"/>
-        <v>-7.8188405797101432E-3</v>
+        <v>8.286634460547504E-3</v>
       </c>
       <c r="Q6" s="2">
         <v>1600</v>

--- a/data/datafile.xlsx
+++ b/data/datafile.xlsx
@@ -1,56 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FA3F03-FD8F-D546-98A4-3E235DAAA308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="webdev-home" sheetId="1" r:id="rId1"/>
-    <sheet name="webdev-mainline" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="webdev-home" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="webdev-mainline" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>usage</t>
   </si>
@@ -99,46 +61,29 @@
   <si>
     <t>chosenWaste</t>
   </si>
-  <si>
-    <t>uniques</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99D07A"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -150,18 +95,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
+      <left style="double"/>
       <right/>
       <top/>
       <bottom/>
@@ -171,14 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,7 +127,17 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFD4EDD2"/>
+          <bgColor rgb="FF99D07A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC0504D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -202,12 +152,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC0504D"/>
+          <bgColor rgb="FFD4EDD2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -219,9 +166,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFD4EDD2"/>
+          <bgColor rgb="FFC0504D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -236,12 +186,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC0504D"/>
+          <bgColor rgb="FFD4EDD2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -253,9 +200,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFD4EDD2"/>
+          <bgColor rgb="FFC0504D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -270,12 +220,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC0504D"/>
+          <bgColor rgb="FFD4EDD2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -287,9 +234,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFD4EDD2"/>
+          <bgColor rgb="FFC0504D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -304,19 +254,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC0504D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF99D07A"/>
+          <bgColor rgb="FFD4EDD2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -654,34 +594,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20" style="5" customWidth="1"/>
+    <col min="13" max="14" width="22" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,13 +663,10 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.13900000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="B2">
         <v>375</v>
@@ -755,50 +685,38 @@
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G17" si="0">F2/D2</f>
-        <v>3.1197411003236244</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H17" si="1">G2/MIN(2,C2)</f>
-        <v>1.5598705501618122</v>
-      </c>
-      <c r="I2" t="str">
+        <f t="shared" ref="H2:H17" si="1">G2/MIN(3,C2)</f>
+      </c>
+      <c r="I2">
         <f t="shared" ref="I2:I17" si="2">_xlfn.IFS(    H2&lt;0.9, "POOR (--)",     H2&lt;1, "(-)",     H2=1, "GOOD!",     H2&gt;1.2, "BIG (++)",     H2&gt;1, "(+)"  )</f>
-        <v>BIG (++)</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J17" si="3">(H2-1)*A2</f>
-        <v>7.7822006472491906E-2</v>
       </c>
       <c r="K2" s="4">
-        <v>618</v>
+        <v>927</v>
       </c>
       <c r="L2" s="5">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:M17" si="4">L2/D2</f>
-        <v>2.2394822006472492</v>
       </c>
       <c r="N2" s="3">
-        <f t="shared" ref="N2:N17" si="5">M2/MIN(2,C2)</f>
-        <v>1.1197411003236246</v>
-      </c>
-      <c r="O2" t="str">
+        <f t="shared" ref="N2:N17" si="5">M2/MIN(3,C2)</f>
+      </c>
+      <c r="O2">
         <f t="shared" ref="O2:O17" si="6">_xlfn.IFS(    N2&lt;0.9, "POOR (--)",     N2&lt;1, "(-)",     N2=1, "GOOD!",     N2&gt;1.2, "BIG (++)",     N2&gt;1, "(+)"  )</f>
-        <v>(+)</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P17" si="7">(N2-1)*A2</f>
-        <v>1.6644012944983824E-2</v>
-      </c>
-      <c r="Q2" s="2" cm="1">
-        <f t="array" ref="Q2:Q4">_xlfn._xlws.SORT(_xlfn.UNIQUE(L2:L17))</f>
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.13400000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="B3">
         <v>414</v>
@@ -817,49 +735,38 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>2.1416184971098264</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="1"/>
-        <v>1.0708092485549132</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="3"/>
-        <v>9.4884393063583723E-3</v>
       </c>
       <c r="K3" s="4">
         <v>692</v>
       </c>
       <c r="L3" s="5">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="6"/>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="B4">
         <v>390</v>
@@ -878,49 +785,38 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>2.9845201238390091</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>1.4922600619195046</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>4.676470588235293E-2</v>
       </c>
       <c r="K4" s="4">
-        <v>646</v>
+        <v>969</v>
       </c>
       <c r="L4" s="5">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="4"/>
-        <v>2.1424148606811144</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="5"/>
-        <v>1.0712074303405572</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="6"/>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="7"/>
-        <v>6.7647058823529348E-3</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>0.086</v>
       </c>
       <c r="B5">
         <v>375</v>
@@ -939,46 +835,38 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>2.1035598705501619</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>1.051779935275081</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>4.4530744336569623E-3</v>
       </c>
       <c r="K5" s="4">
         <v>618</v>
       </c>
       <c r="L5" s="5">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="4"/>
-        <v>2.2394822006472492</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" si="5"/>
-        <v>1.1197411003236246</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="7"/>
-        <v>1.0297734627831717E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="B6">
         <v>414</v>
@@ -997,46 +885,38 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>3.1734104046242773</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>1.5867052023121386</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>4.8696531791907506E-2</v>
       </c>
       <c r="K6" s="4">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="L6" s="5">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="B7">
         <v>360</v>
@@ -1055,46 +935,38 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>3.2677966101694915</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>1.6338983050847458</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>3.8667796610169489E-2</v>
       </c>
       <c r="K7" s="4">
-        <v>590</v>
+        <v>885</v>
       </c>
       <c r="L7" s="5">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="4"/>
-        <v>2.3457627118644067</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="5"/>
-        <v>1.1728813559322033</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="7"/>
-        <v>1.0545762711864403E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5.2000000000000005E-2</v>
+        <v>0.052</v>
       </c>
       <c r="B8">
         <v>428</v>
@@ -1113,46 +985,38 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>3.1754874651810585</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>1.5877437325905293</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>3.0562674094707525E-2</v>
       </c>
       <c r="K8" s="4">
-        <v>718</v>
+        <v>1077</v>
       </c>
       <c r="L8" s="5">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="4"/>
-        <v>1.9275766016713092</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="5"/>
-        <v>0.96378830083565459</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="6"/>
-        <v>(-)</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="7"/>
-        <v>-1.8830083565459616E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4.0999999999999995E-2</v>
+        <v>0.041</v>
       </c>
       <c r="B9">
         <v>1920</v>
@@ -1171,46 +1035,38 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>1.0232974910394266</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>1.0232974910394266</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>9.5519713261648948E-4</v>
       </c>
       <c r="K9" s="4">
         <v>558</v>
       </c>
       <c r="L9" s="5">
-        <v>558</v>
+        <v>1038</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3.7000000000000005E-2</v>
+        <v>0.037</v>
       </c>
       <c r="B10">
         <v>412</v>
@@ -1229,46 +1085,38 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>2.8023255813953489</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>1.4011627906976745</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>1.4843023255813957E-2</v>
       </c>
       <c r="K10" s="4">
-        <v>688</v>
+        <v>905</v>
       </c>
       <c r="L10" s="5">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="4"/>
-        <v>2.0116279069767442</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="5"/>
-        <v>1.0058139534883721</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="7"/>
-        <v>2.1511627906976784E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="B11">
         <v>1440</v>
@@ -1287,46 +1135,38 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>2.043010752688172</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>1.021505376344086</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>4.94623655913978E-4</v>
       </c>
       <c r="K11" s="4">
         <v>1116</v>
       </c>
       <c r="L11" s="5">
-        <v>1116</v>
+        <v>1038</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1.8000000000000002E-2</v>
+        <v>0.018</v>
       </c>
       <c r="B12">
         <v>1366</v>
@@ -1345,46 +1185,38 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>1.0232974910394266</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>1.0232974910394266</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>4.1935483870967841E-4</v>
       </c>
       <c r="K12" s="4">
         <v>558</v>
       </c>
-      <c r="L12" s="6">
-        <v>558</v>
+      <c r="L12" s="5">
+        <v>1038</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="B13">
         <v>360</v>
@@ -1403,46 +1235,38 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>2.2033898305084745</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>1.1016949152542372</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>1.6271186440677959E-3</v>
       </c>
       <c r="K13" s="4">
         <v>590</v>
       </c>
       <c r="L13" s="5">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="4"/>
-        <v>2.3457627118644067</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="5"/>
-        <v>1.1728813559322033</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="7"/>
-        <v>2.7661016949152534E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="B14">
         <v>768</v>
@@ -1461,46 +1285,38 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>2.043010752688172</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>1.021505376344086</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>3.2258064516129E-4</v>
       </c>
       <c r="K14" s="4">
         <v>1116</v>
       </c>
-      <c r="L14" s="6">
-        <v>558</v>
+      <c r="L14" s="5">
+        <v>1038</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="6"/>
-        <v>POOR (--)</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="7"/>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1.3999999999999999E-2</v>
+        <v>0.014</v>
       </c>
       <c r="B15">
         <v>393</v>
@@ -1519,46 +1335,38 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>2.9570552147239262</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>1.4785276073619631</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>6.6993865030674825E-3</v>
       </c>
       <c r="K15" s="4">
-        <v>652</v>
+        <v>897</v>
       </c>
       <c r="L15" s="5">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="4"/>
-        <v>2.1226993865030677</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="5"/>
-        <v>1.0613496932515338</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="7"/>
-        <v>8.5889570552147353E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1.1000000000000001E-2</v>
+        <v>0.011</v>
       </c>
       <c r="B16">
         <v>1536</v>
@@ -1577,46 +1385,38 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>1.3279569892473118</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>1.0623655913978494</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="3"/>
-        <v>6.8602150537634308E-4</v>
       </c>
       <c r="K16" s="4">
         <v>698</v>
       </c>
       <c r="L16" s="5">
-        <v>692</v>
+        <v>1038</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
-        <v>1.2401433691756272</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="5"/>
-        <v>0.99211469534050178</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="6"/>
-        <v>(-)</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="7"/>
-        <v>-8.6738351254480385E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="B17">
         <v>320</v>
@@ -1635,106 +1435,91 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>2.2131782945736433</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>1.1065891472868217</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="3"/>
-        <v>8.5271317829457339E-4</v>
       </c>
       <c r="K17" s="4">
         <v>516</v>
       </c>
-      <c r="L17" s="6">
-        <v>558</v>
+      <c r="L17" s="5">
+        <v>1038</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="4"/>
-        <v>2.1627906976744184</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="5"/>
-        <v>1.0813953488372092</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="7"/>
-        <v>6.5116279069767384E-4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L11 L13 L15:L16">
-    <cfRule type="expression" dxfId="15" priority="1">
+  <conditionalFormatting sqref="L2:L17">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>O2="GOOD!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>O2="POOR (--)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>O2="BIG (++)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>OR(O2="(+)",O2="(-)")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>I2="GOOD!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>I2="POOR (--)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>I2="BIG (++)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>OR(I2="(+)",I2="(-)")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20" style="5" customWidth="1"/>
+    <col min="13" max="14" width="22" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1783,13 +1568,10 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.13900000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="B2">
         <v>375</v>
@@ -1808,50 +1590,38 @@
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G17" si="0">F2/D2</f>
-        <v>2.9279999999999999</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" ref="H2:H17" si="1">G2/MIN(3,C2)</f>
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I2" t="str">
+      </c>
+      <c r="I2">
         <f t="shared" ref="I2:I17" si="2">_xlfn.IFS(    H2&lt;0.9, "POOR (--)",     H2&lt;1, "(-)",     H2=1, "GOOD!",     H2&gt;1.2, "BIG (++)",     H2&gt;1, "(+)"  )</f>
-        <v>(-)</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J17" si="3">(H2-1)*A2</f>
-        <v>-3.3360000000000035E-3</v>
       </c>
       <c r="K2" s="4">
         <v>1125</v>
       </c>
       <c r="L2" s="5">
-        <v>1125</v>
+        <v>1242</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:M17" si="4">L2/D2</f>
-        <v>3</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ref="N2:N17" si="5">M2/MIN(3,C2)</f>
-        <v>1</v>
-      </c>
-      <c r="O2" t="str">
+      </c>
+      <c r="O2">
         <f t="shared" ref="O2:O17" si="6">_xlfn.IFS(    N2&lt;0.9, "POOR (--)",     N2&lt;1, "(-)",     N2=1, "GOOD!",     N2&gt;1.2, "BIG (++)",     N2&gt;1, "(+)"  )</f>
-        <v>GOOD!</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P17" si="7">(N2-1)*A2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" cm="1">
-        <f t="array" ref="Q2:Q7">_xlfn._xlws.SORT(_xlfn.UNIQUE(L2:L17))</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.13400000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="B3">
         <v>414</v>
@@ -1870,49 +1640,38 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>2.0410628019323673</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="1"/>
-        <v>1.0205314009661837</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="3"/>
-        <v>2.7512077294686113E-3</v>
       </c>
       <c r="K3" s="4">
         <v>828</v>
       </c>
       <c r="L3" s="5">
-        <v>828</v>
+        <v>1242</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="6"/>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="B4">
         <v>390</v>
@@ -1931,49 +1690,38 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>2.8153846153846156</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>0.93846153846153857</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="2"/>
-        <v>(-)</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>-5.846153846153836E-3</v>
       </c>
       <c r="K4" s="4">
         <v>1170</v>
       </c>
       <c r="L4" s="5">
-        <v>1125</v>
+        <v>1242</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="4"/>
-        <v>2.8846153846153846</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="5"/>
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="6"/>
-        <v>(-)</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="6"/>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="7"/>
-        <v>-3.6538461538461516E-3</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>0.086</v>
       </c>
       <c r="B5">
         <v>375</v>
@@ -1992,49 +1740,38 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>1.976</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>(-)</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>-1.0320000000000008E-3</v>
       </c>
       <c r="K5" s="4">
         <v>750</v>
       </c>
       <c r="L5" s="5">
-        <v>750</v>
+        <v>1242</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="B6">
         <v>414</v>
@@ -2053,49 +1790,38 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>3.0241545893719808</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>1.0080515297906603</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>6.6827697262480175E-4</v>
       </c>
       <c r="K6" s="4">
         <v>1242</v>
       </c>
       <c r="L6" s="5">
-        <v>1366</v>
+        <v>1242</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="4"/>
-        <v>3.2995169082125604</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="5"/>
-        <v>1.0998389694041868</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="7"/>
-        <v>8.286634460547504E-3</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="B7">
         <v>360</v>
@@ -2114,49 +1840,38 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>3.05</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>1.0166666666666666</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>1.0166666666666631E-3</v>
       </c>
       <c r="K7" s="4">
         <v>1080</v>
       </c>
       <c r="L7" s="5">
-        <v>1125</v>
+        <v>1242</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="4"/>
-        <v>3.125</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="5"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="7"/>
-        <v>2.5416666666666712E-3</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5.2000000000000005E-2</v>
+        <v>0.052</v>
       </c>
       <c r="B8">
         <v>428</v>
@@ -2175,46 +1890,38 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>2.9252336448598131</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>0.97507788161993769</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>(-)</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>-1.2959501557632401E-3</v>
       </c>
       <c r="K8" s="4">
         <v>1284</v>
       </c>
       <c r="L8" s="5">
-        <v>1366</v>
+        <v>1242</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="4"/>
-        <v>3.1915887850467288</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="5"/>
-        <v>1.0638629283489096</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="7"/>
-        <v>3.3208722741433E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4.0999999999999995E-2</v>
+        <v>0.041</v>
       </c>
       <c r="B9">
         <v>1920</v>
@@ -2233,46 +1940,38 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="K9" s="4">
         <v>1600</v>
       </c>
       <c r="L9" s="5">
-        <v>1600</v>
+        <v>1242</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3.7000000000000005E-2</v>
+        <v>0.037</v>
       </c>
       <c r="B10">
         <v>412</v>
@@ -2291,46 +1990,38 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>2.6650485436893203</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>1.0133264424674222</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>4.9307837129462166E-4</v>
       </c>
       <c r="K10" s="4">
         <v>1084</v>
       </c>
       <c r="L10" s="5">
-        <v>1125</v>
+        <v>1242</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="4"/>
-        <v>2.7305825242718447</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="5"/>
-        <v>1.0382443058067852</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="7"/>
-        <v>1.4150393148510516E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="B11">
         <v>1440</v>
@@ -2349,46 +2040,38 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>1.1111111111111112</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>POOR (--)</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>-1.0222222222222221E-2</v>
       </c>
       <c r="K11" s="4">
         <v>2880</v>
       </c>
       <c r="L11" s="5">
-        <v>1920</v>
+        <v>1242</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="4"/>
-        <v>1.3333333333333333</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="6"/>
-        <v>POOR (--)</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="7"/>
-        <v>-7.6666666666666671E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1.8000000000000002E-2</v>
+        <v>0.018</v>
       </c>
       <c r="B12">
         <v>1366</v>
@@ -2407,46 +2090,38 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>1.0453879941434847</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>1.0453879941434847</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>8.1698389458272492E-4</v>
       </c>
       <c r="K12" s="4">
         <v>1366</v>
       </c>
       <c r="L12" s="5">
-        <v>1366</v>
+        <v>1242</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="B13">
         <v>360</v>
@@ -2465,46 +2140,38 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>2.0583333333333331</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>1.0291666666666666</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>4.6666666666666504E-4</v>
       </c>
       <c r="K13" s="4">
         <v>720</v>
       </c>
       <c r="L13" s="5">
-        <v>750</v>
+        <v>1242</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="4"/>
-        <v>2.0833333333333335</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="5"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="7"/>
-        <v>6.6666666666666784E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="B14">
         <v>768</v>
@@ -2523,46 +2190,38 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>2.0833333333333335</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>6.250000000000011E-4</v>
       </c>
       <c r="K14" s="4">
         <v>1536</v>
       </c>
       <c r="L14" s="5">
-        <v>1600</v>
+        <v>1242</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="4"/>
-        <v>2.0833333333333335</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="5"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="7"/>
-        <v>6.250000000000011E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1.3999999999999999E-2</v>
+        <v>0.014</v>
       </c>
       <c r="B15">
         <v>393</v>
@@ -2581,46 +2240,38 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>2.7938931297709924</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>1.0159611380985427</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>2.2345593337959798E-4</v>
       </c>
       <c r="K15" s="4">
         <v>1081</v>
       </c>
       <c r="L15" s="5">
-        <v>1125</v>
+        <v>1242</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="4"/>
-        <v>2.8625954198473282</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="5"/>
-        <v>1.0409437890353921</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="7"/>
-        <v>5.7321304649548914E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1.1000000000000001E-2</v>
+        <v>0.011</v>
       </c>
       <c r="B16">
         <v>1536</v>
@@ -2639,46 +2290,38 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>1.0416666666666667</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>POOR (--)</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="3"/>
-        <v>-1.8333333333333331E-3</v>
       </c>
       <c r="K16" s="4">
         <v>1920</v>
       </c>
       <c r="L16" s="5">
-        <v>1920</v>
+        <v>1242</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
-        <v>1.25</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="B17">
         <v>320</v>
@@ -2697,73 +2340,65 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>2.03125</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>1.015625</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="3"/>
-        <v>1.25E-4</v>
       </c>
       <c r="K17" s="4">
         <v>640</v>
       </c>
       <c r="L17" s="5">
-        <v>750</v>
+        <v>1242</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="4"/>
-        <v>2.34375</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="5"/>
-        <v>1.171875</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="7"/>
-        <v>1.3749999999999999E-3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L17">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>O2="GOOD!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>O2="POOR (--)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>O2="BIG (++)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>OR(O2="(+)",O2="(-)")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>I2="GOOD!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>I2="POOR (--)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>I2="BIG (++)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>OR(I2="(+)",I2="(-)")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/data/datafile.xlsx
+++ b/data/datafile.xlsx
@@ -1,29 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DC889-641A-604E-9034-6ED86752B5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="webdev-home" sheetId="1" r:id="rId1"/>
-    <sheet name="webdev-mishipay" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="webdev-home-mishipay" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="webdev-mishipay-hero" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -81,19 +65,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,18 +95,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
+      <left style="double"/>
       <right/>
       <top/>
       <bottom/>
@@ -149,7 +127,17 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFD4EDD2"/>
+          <bgColor rgb="FF99D07A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC0504D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -164,12 +152,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC0504D"/>
+          <bgColor rgb="FFD4EDD2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -181,9 +166,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFD4EDD2"/>
+          <bgColor rgb="FFC0504D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -198,12 +186,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC0504D"/>
+          <bgColor rgb="FFD4EDD2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -215,9 +200,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFD4EDD2"/>
+          <bgColor rgb="FFC0504D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -232,12 +220,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC0504D"/>
+          <bgColor rgb="FFD4EDD2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -249,9 +234,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFD4EDD2"/>
+          <bgColor rgb="FFC0504D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -266,19 +254,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFC0504D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF99D07A"/>
+          <bgColor rgb="FFD4EDD2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -616,14 +594,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -641,7 +614,7 @@
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,9 +664,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.13900000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="B2">
         <v>375</v>
@@ -712,19 +685,15 @@
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G17" si="0">F2/D2</f>
-        <v>3.1197411003236244</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" ref="H2:H17" si="1">G2/MIN(2,C2)</f>
-        <v>1.5598705501618122</v>
-      </c>
-      <c r="I2" t="str">
+      </c>
+      <c r="I2">
         <f t="shared" ref="I2:I17" si="2">_xlfn.IFS(    H2&lt;0.9, "POOR (--)",     H2&lt;1, "(-)",     H2=1, "GOOD!",     H2&gt;1.2, "BIG (++)",     H2&gt;1, "(+)"  )</f>
-        <v>BIG (++)</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J17" si="3">(H2-1)*A2</f>
-        <v>7.7822006472491906E-2</v>
       </c>
       <c r="K2" s="4">
         <v>618</v>
@@ -734,24 +703,20 @@
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:M17" si="4">L2/D2</f>
-        <v>2.2394822006472492</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ref="N2:N17" si="5">M2/MIN(2,C2)</f>
-        <v>1.1197411003236246</v>
-      </c>
-      <c r="O2" t="str">
+      </c>
+      <c r="O2">
         <f t="shared" ref="O2:O17" si="6">_xlfn.IFS(    N2&lt;0.9, "POOR (--)",     N2&lt;1, "(-)",     N2=1, "GOOD!",     N2&gt;1.2, "BIG (++)",     N2&gt;1, "(+)"  )</f>
-        <v>(+)</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P17" si="7">(N2-1)*A2</f>
-        <v>1.6644012944983824E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.13400000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="B3">
         <v>414</v>
@@ -770,19 +735,15 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>2.1416184971098264</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="1"/>
-        <v>1.0708092485549132</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="3"/>
-        <v>9.4884393063583723E-3</v>
       </c>
       <c r="K3" s="4">
         <v>692</v>
@@ -792,24 +753,20 @@
       </c>
       <c r="M3" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="6"/>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="B4">
         <v>390</v>
@@ -828,19 +785,15 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>2.9845201238390091</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>1.4922600619195046</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>4.676470588235293E-2</v>
       </c>
       <c r="K4" s="4">
         <v>646</v>
@@ -850,24 +803,20 @@
       </c>
       <c r="M4" s="3">
         <f t="shared" si="4"/>
-        <v>2.1424148606811144</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="5"/>
-        <v>1.0712074303405572</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="6"/>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="7"/>
-        <v>6.7647058823529348E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>0.086</v>
       </c>
       <c r="B5">
         <v>375</v>
@@ -886,19 +835,15 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>2.1035598705501619</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>1.051779935275081</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>4.4530744336569623E-3</v>
       </c>
       <c r="K5" s="4">
         <v>618</v>
@@ -908,24 +853,20 @@
       </c>
       <c r="M5" s="3">
         <f t="shared" si="4"/>
-        <v>2.2394822006472492</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" si="5"/>
-        <v>1.1197411003236246</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="7"/>
-        <v>1.0297734627831717E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="B6">
         <v>414</v>
@@ -944,19 +885,15 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>3.1734104046242773</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>1.5867052023121386</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>4.8696531791907506E-2</v>
       </c>
       <c r="K6" s="4">
         <v>692</v>
@@ -966,24 +903,20 @@
       </c>
       <c r="M6" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="B7">
         <v>360</v>
@@ -1002,19 +935,15 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>3.2677966101694915</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>1.6338983050847458</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>3.8667796610169489E-2</v>
       </c>
       <c r="K7" s="4">
         <v>590</v>
@@ -1024,24 +953,20 @@
       </c>
       <c r="M7" s="3">
         <f t="shared" si="4"/>
-        <v>2.3457627118644067</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="5"/>
-        <v>1.1728813559322033</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="7"/>
-        <v>1.0545762711864403E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="B8">
         <v>428</v>
@@ -1060,19 +985,15 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>3.1754874651810585</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>1.5877437325905293</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>3.0562674094707521E-2</v>
       </c>
       <c r="K8" s="4">
         <v>718</v>
@@ -1082,24 +1003,20 @@
       </c>
       <c r="M8" s="3">
         <f t="shared" si="4"/>
-        <v>1.9275766016713092</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="5"/>
-        <v>0.96378830083565459</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="6"/>
-        <v>(-)</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="7"/>
-        <v>-1.8830083565459614E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>0.041</v>
       </c>
       <c r="B9">
         <v>1920</v>
@@ -1118,46 +1035,38 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>1.0232974910394266</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>1.0232974910394266</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>9.551971326164897E-4</v>
       </c>
       <c r="K9" s="4">
         <v>558</v>
       </c>
       <c r="L9" s="5">
-        <v>558</v>
+        <v>692</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="B10">
         <v>412</v>
@@ -1176,19 +1085,15 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>2.8023255813953489</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>1.4011627906976745</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>1.4843023255813954E-2</v>
       </c>
       <c r="K10" s="4">
         <v>688</v>
@@ -1198,24 +1103,20 @@
       </c>
       <c r="M10" s="3">
         <f t="shared" si="4"/>
-        <v>2.0116279069767442</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="5"/>
-        <v>1.0058139534883721</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="7"/>
-        <v>2.1511627906976782E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="B11">
         <v>1440</v>
@@ -1234,46 +1135,38 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>2.043010752688172</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>1.021505376344086</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>4.94623655913978E-4</v>
       </c>
       <c r="K11" s="4">
         <v>1116</v>
       </c>
       <c r="L11" s="5">
-        <v>1116</v>
+        <v>692</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="B12">
         <v>1366</v>
@@ -1292,46 +1185,38 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>1.0232974910394266</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>1.0232974910394266</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>4.1935483870967835E-4</v>
       </c>
       <c r="K12" s="4">
         <v>558</v>
       </c>
       <c r="L12" s="5">
-        <v>558</v>
+        <v>692</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="B13">
         <v>360</v>
@@ -1350,19 +1235,15 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>2.2033898305084745</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>1.1016949152542372</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>1.6271186440677959E-3</v>
       </c>
       <c r="K13" s="4">
         <v>590</v>
@@ -1372,24 +1253,20 @@
       </c>
       <c r="M13" s="3">
         <f t="shared" si="4"/>
-        <v>2.3457627118644067</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="5"/>
-        <v>1.1728813559322033</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="7"/>
-        <v>2.7661016949152534E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="B14">
         <v>768</v>
@@ -1408,46 +1285,38 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>2.043010752688172</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>1.021505376344086</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>3.2258064516129E-4</v>
       </c>
       <c r="K14" s="4">
         <v>1116</v>
       </c>
       <c r="L14" s="5">
-        <v>1116</v>
+        <v>692</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="B15">
         <v>393</v>
@@ -1466,19 +1335,15 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>2.9570552147239262</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>1.4785276073619631</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>6.6993865030674834E-3</v>
       </c>
       <c r="K15" s="4">
         <v>652</v>
@@ -1488,24 +1353,20 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="4"/>
-        <v>2.1226993865030677</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="5"/>
-        <v>1.0613496932515338</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="7"/>
-        <v>8.5889570552147364E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="B16">
         <v>1536</v>
@@ -1524,19 +1385,15 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>1.3279569892473118</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>1.0623655913978494</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="3"/>
-        <v>6.8602150537634297E-4</v>
       </c>
       <c r="K16" s="4">
         <v>698</v>
@@ -1546,24 +1403,20 @@
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
-        <v>1.2401433691756272</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="5"/>
-        <v>0.99211469534050178</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="6"/>
-        <v>(-)</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="7"/>
-        <v>-8.6738351254480372E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="B17">
         <v>320</v>
@@ -1582,88 +1435,75 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>2.2131782945736433</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>1.1065891472868217</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="3"/>
-        <v>8.5271317829457339E-4</v>
       </c>
       <c r="K17" s="4">
         <v>516</v>
       </c>
       <c r="L17" s="5">
-        <v>558</v>
+        <v>692</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="4"/>
-        <v>2.1627906976744184</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="5"/>
-        <v>1.0813953488372092</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="7"/>
-        <v>6.5116279069767384E-4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L17">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>O2="GOOD!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>O2="POOR (--)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>O2="BIG (++)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>OR(O2="(+)",O2="(-)")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>I2="GOOD!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>I2="POOR (--)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>I2="BIG (++)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>OR(I2="(+)",I2="(-)")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
@@ -1679,7 +1519,7 @@
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1729,9 +1569,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.13900000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="B2">
         <v>375</v>
@@ -1750,19 +1590,15 @@
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G17" si="0">F2/D2</f>
-        <v>2.9279999999999999</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" ref="H2:H17" si="1">G2/MIN(3,C2)</f>
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I2" t="str">
+      </c>
+      <c r="I2">
         <f t="shared" ref="I2:I17" si="2">_xlfn.IFS(    H2&lt;0.9, "POOR (--)",     H2&lt;1, "(-)",     H2=1, "GOOD!",     H2&gt;1.2, "BIG (++)",     H2&gt;1, "(+)"  )</f>
-        <v>(-)</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J17" si="3">(H2-1)*A2</f>
-        <v>-3.3360000000000035E-3</v>
       </c>
       <c r="K2" s="4">
         <v>1125</v>
@@ -1772,24 +1608,20 @@
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:M17" si="4">L2/D2</f>
-        <v>3.3119999999999998</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ref="N2:N17" si="5">M2/MIN(3,C2)</f>
-        <v>1.1039999999999999</v>
-      </c>
-      <c r="O2" t="str">
+      </c>
+      <c r="O2">
         <f t="shared" ref="O2:O17" si="6">_xlfn.IFS(    N2&lt;0.9, "POOR (--)",     N2&lt;1, "(-)",     N2=1, "GOOD!",     N2&gt;1.2, "BIG (++)",     N2&gt;1, "(+)"  )</f>
-        <v>(+)</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P17" si="7">(N2-1)*A2</f>
-        <v>1.4455999999999983E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.13400000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="B3">
         <v>414</v>
@@ -1808,46 +1640,38 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>2.0410628019323673</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="1"/>
-        <v>1.0205314009661837</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="3"/>
-        <v>2.7512077294686113E-3</v>
       </c>
       <c r="K3" s="4">
         <v>828</v>
       </c>
       <c r="L3" s="5">
-        <v>828</v>
+        <v>1242</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="6"/>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="B4">
         <v>390</v>
@@ -1866,19 +1690,15 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>2.8153846153846156</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>0.93846153846153857</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="2"/>
-        <v>(-)</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>-5.846153846153836E-3</v>
       </c>
       <c r="K4" s="4">
         <v>1170</v>
@@ -1888,24 +1708,20 @@
       </c>
       <c r="M4" s="3">
         <f t="shared" si="4"/>
-        <v>3.1846153846153844</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="5"/>
-        <v>1.0615384615384615</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="6"/>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="7"/>
-        <v>5.8461538461538464E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>8.5999999999999993E-2</v>
+        <v>0.086</v>
       </c>
       <c r="B5">
         <v>375</v>
@@ -1924,46 +1740,38 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>1.976</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>(-)</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>-1.0320000000000008E-3</v>
       </c>
       <c r="K5" s="4">
         <v>750</v>
       </c>
       <c r="L5" s="5">
-        <v>828</v>
+        <v>1242</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="4"/>
-        <v>2.2080000000000002</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" si="5"/>
-        <v>1.1040000000000001</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="6"/>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="7"/>
-        <v>8.9440000000000075E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="B6">
         <v>414</v>
@@ -1982,19 +1790,15 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>3.0241545893719808</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>1.0080515297906603</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>6.6827697262480175E-4</v>
       </c>
       <c r="K6" s="4">
         <v>1242</v>
@@ -2004,24 +1808,20 @@
       </c>
       <c r="M6" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="B7">
         <v>360</v>
@@ -2040,19 +1840,15 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>3.05</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>1.0166666666666666</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>1.0166666666666631E-3</v>
       </c>
       <c r="K7" s="4">
         <v>1080</v>
@@ -2062,24 +1858,20 @@
       </c>
       <c r="M7" s="3">
         <f t="shared" si="4"/>
-        <v>3.45</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="5"/>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="7"/>
-        <v>9.1500000000000071E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="B8">
         <v>428</v>
@@ -2098,19 +1890,15 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>2.9252336448598131</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>0.97507788161993769</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>(-)</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>-1.2959501557632399E-3</v>
       </c>
       <c r="K8" s="4">
         <v>1284</v>
@@ -2120,24 +1908,20 @@
       </c>
       <c r="M8" s="3">
         <f t="shared" si="4"/>
-        <v>2.9018691588785046</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="5"/>
-        <v>0.96728971962616817</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="6"/>
-        <v>(-)</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="6"/>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="7"/>
-        <v>-1.7009345794392553E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>0.041</v>
       </c>
       <c r="B9">
         <v>1920</v>
@@ -2156,46 +1940,38 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="K9" s="4">
         <v>1600</v>
       </c>
       <c r="L9" s="5">
-        <v>1600</v>
+        <v>1242</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="B10">
         <v>412</v>
@@ -2214,19 +1990,15 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>2.6650485436893203</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>1.0133264424674222</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>4.9307837129462155E-4</v>
       </c>
       <c r="K10" s="4">
         <v>1084</v>
@@ -2236,24 +2008,20 @@
       </c>
       <c r="M10" s="3">
         <f t="shared" si="4"/>
-        <v>3.0145631067961167</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="5"/>
-        <v>1.1462217136106909</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="7"/>
-        <v>5.4102034035955638E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="B11">
         <v>1440</v>
@@ -2272,46 +2040,38 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>1.1111111111111112</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>POOR (--)</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>-1.0222222222222221E-2</v>
       </c>
       <c r="K11" s="4">
         <v>2880</v>
       </c>
       <c r="L11" s="5">
-        <v>1920</v>
+        <v>1242</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="4"/>
-        <v>1.3333333333333333</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="6"/>
-        <v>POOR (--)</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="7"/>
-        <v>-7.6666666666666671E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="B12">
         <v>1366</v>
@@ -2330,46 +2090,38 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>1.0453879941434847</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>1.0453879941434847</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>8.169838945827247E-4</v>
       </c>
       <c r="K12" s="4">
         <v>1366</v>
       </c>
       <c r="L12" s="5">
-        <v>1600</v>
+        <v>1242</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="4"/>
-        <v>1.171303074670571</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="5"/>
-        <v>1.171303074670571</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="7"/>
-        <v>3.0834553440702785E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="B13">
         <v>360</v>
@@ -2388,46 +2140,38 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>2.0583333333333331</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>1.0291666666666666</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>4.6666666666666504E-4</v>
       </c>
       <c r="K13" s="4">
         <v>720</v>
       </c>
       <c r="L13" s="5">
-        <v>828</v>
+        <v>1242</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="4"/>
-        <v>2.2999999999999998</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="5"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="7"/>
-        <v>2.3999999999999985E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="B14">
         <v>768</v>
@@ -2446,46 +2190,38 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>2.0833333333333335</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>6.250000000000011E-4</v>
       </c>
       <c r="K14" s="4">
         <v>1536</v>
       </c>
       <c r="L14" s="5">
-        <v>1600</v>
+        <v>1242</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="4"/>
-        <v>2.0833333333333335</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="5"/>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="7"/>
-        <v>6.250000000000011E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="B15">
         <v>393</v>
@@ -2504,19 +2240,15 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>2.7938931297709924</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>1.0159611380985427</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>2.2345593337959801E-4</v>
       </c>
       <c r="K15" s="4">
         <v>1081</v>
@@ -2526,24 +2258,20 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="4"/>
-        <v>3.1603053435114505</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="5"/>
-        <v>1.1492019430950728</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="6"/>
-        <v>(+)</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="7"/>
-        <v>2.0888272033310197E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="B16">
         <v>1536</v>
@@ -2562,46 +2290,38 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>1.0416666666666667</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>POOR (--)</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="3"/>
-        <v>-1.8333333333333329E-3</v>
       </c>
       <c r="K16" s="4">
         <v>1920</v>
       </c>
       <c r="L16" s="5">
-        <v>1920</v>
+        <v>1242</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="4"/>
-        <v>1.25</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="6"/>
-        <v>GOOD!</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="B17">
         <v>320</v>
@@ -2620,73 +2340,65 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>2.03125</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>1.015625</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>(+)</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="3"/>
-        <v>1.25E-4</v>
       </c>
       <c r="K17" s="4">
         <v>640</v>
       </c>
       <c r="L17" s="5">
-        <v>828</v>
+        <v>1242</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="4"/>
-        <v>2.5874999999999999</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="5"/>
-        <v>1.29375</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="6"/>
-        <v>BIG (++)</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="7"/>
-        <v>2.3499999999999997E-3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L17">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>O2="GOOD!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>O2="POOR (--)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>O2="BIG (++)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>OR(O2="(+)",O2="(-)")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F17">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>I2="GOOD!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>I2="POOR (--)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>I2="BIG (++)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>OR(I2="(+)",I2="(-)")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>